--- a/choi/액셀/20917-최수혁-202306-A.xlsx
+++ b/choi/액셀/20917-최수혁-202306-A.xlsx
@@ -584,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,97 +612,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,7 +719,14 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1266,6 +1282,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="197727232"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1907,7 +1924,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1991,16 +2008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631030</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184545</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>477439</xdr:colOff>
+      <xdr:colOff>781048</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:rowOff>192881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2024,7 +2041,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4631530" y="35718"/>
+          <a:off x="5238748" y="59531"/>
           <a:ext cx="2311003" cy="573881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2417,7 +2434,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2426,7 +2443,7 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="1" customWidth="1"/>
@@ -2438,31 +2455,31 @@
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2479,13 +2496,13 @@
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <v>2450</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="18">
         <v>550</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="21">
         <v>84320</v>
       </c>
       <c r="I5" s="5" t="str">
@@ -2510,13 +2527,13 @@
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <v>1325</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="19">
         <v>675</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="22">
         <v>48000</v>
       </c>
       <c r="I6" s="2" t="str">
@@ -2541,13 +2558,13 @@
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="19">
         <v>763</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>1235</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="22">
         <v>109000</v>
       </c>
       <c r="I7" s="2" t="str">
@@ -2572,13 +2589,13 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="19">
         <v>3250</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="19">
         <v>750</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="22">
         <v>107800</v>
       </c>
       <c r="I8" s="2" t="str">
@@ -2603,13 +2620,13 @@
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="19">
         <v>1089</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>911</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="22">
         <v>51000</v>
       </c>
       <c r="I9" s="2" t="str">
@@ -2634,13 +2651,13 @@
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="19">
         <v>567</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="19">
         <v>433</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="22">
         <v>112970</v>
       </c>
       <c r="I10" s="2" t="str">
@@ -2665,13 +2682,13 @@
       <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="19">
         <v>987</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="19">
         <v>1013</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="22">
         <v>309000</v>
       </c>
       <c r="I11" s="2" t="str">
@@ -2684,32 +2701,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="20">
         <v>1830</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="20">
         <v>1166</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="23">
         <v>439000</v>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3위</v>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
@@ -2718,41 +2735,47 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="14" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="40">
+        <f>SUMIF(D5:D12,D6,F5:F12)/COUNTIF(B5:D13,D6)</f>
+        <v>1307.75</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="16">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="11">
         <f>SMALL(재고수량,1)</f>
         <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="24" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="42">
+        <f>INDEX(B5:H12,MATCH(C8,C5:C12,0),7)</f>
+        <v>107800</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="41">
         <f>VLOOKUP(H14,C5:H12,6,)</f>
         <v>84320</v>
       </c>
@@ -2768,7 +2791,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F5&gt;=1500</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2787,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2805,25 +2828,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2840,13 +2863,13 @@
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="25">
-        <v>4589</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="F3" s="18">
+        <v>2450</v>
+      </c>
+      <c r="G3" s="18">
         <v>550</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="21">
         <v>84320</v>
       </c>
     </row>
@@ -2863,13 +2886,13 @@
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="19">
         <v>1325</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="19">
         <v>675</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="22">
         <v>48000</v>
       </c>
     </row>
@@ -2886,13 +2909,13 @@
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="26">
-        <v>763</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="F5" s="19">
+        <v>903.00000000000045</v>
+      </c>
+      <c r="G5" s="19">
         <v>1235</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="22">
         <v>109000</v>
       </c>
     </row>
@@ -2909,13 +2932,13 @@
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <v>3250</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="19">
         <v>750</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="22">
         <v>107800</v>
       </c>
     </row>
@@ -2932,13 +2955,13 @@
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="19">
         <v>1089</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>911</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="22">
         <v>51000</v>
       </c>
     </row>
@@ -2955,13 +2978,13 @@
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="19">
         <v>567</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="19">
         <v>433</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="22">
         <v>112970</v>
       </c>
     </row>
@@ -2978,59 +3001,59 @@
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="19">
         <v>987</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>1013</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="22">
         <v>309000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="26">
         <v>1830</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>1166</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="27">
         <v>439000</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="2">
-        <f>DAVERAGE(B2:H10,F2,F3:F10)</f>
+        <f>DAVERAGE(B2:H10,F2,E2:E3)</f>
         <v>1800</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3044,16 +3067,16 @@
     </row>
     <row r="17" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3064,52 +3087,52 @@
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="25">
-        <v>4589</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="D19" s="18">
+        <v>2450</v>
+      </c>
+      <c r="E19" s="21">
         <v>84320</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="26">
-        <v>763</v>
-      </c>
-      <c r="E20" s="29">
+      <c r="D20" s="19">
+        <v>903.00000000000045</v>
+      </c>
+      <c r="E20" s="22">
         <v>109000</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="19">
         <v>3250</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="22">
         <v>107800</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="19">
         <v>1830</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="22">
         <v>439000</v>
       </c>
     </row>
@@ -3118,7 +3141,12 @@
     <mergeCell ref="B11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B3:H10">
+  <conditionalFormatting sqref="B4:H10 B3:E3 G3:H3">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$F3&gt;=1500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F3&gt;=1500</formula>
     </cfRule>
@@ -3149,25 +3177,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3184,13 +3212,13 @@
       <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>1325</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="18">
         <v>675</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="21">
         <v>48000</v>
       </c>
     </row>
@@ -3207,13 +3235,13 @@
       <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="19">
         <v>1089</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="19">
         <v>911</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="22">
         <v>51000</v>
       </c>
     </row>
@@ -3230,13 +3258,13 @@
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="19">
         <v>987</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="19">
         <v>1013</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="22">
         <v>309000</v>
       </c>
     </row>
@@ -3253,26 +3281,26 @@
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <v>1830</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="19">
         <v>1166</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="22">
         <v>439000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="29">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="22">
         <f>SUBTOTAL(1,H3:H6)</f>
         <v>211750</v>
       </c>
@@ -3283,13 +3311,13 @@
         <f>SUBTOTAL(3,C3:C6)</f>
         <v>4</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="28" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -3304,13 +3332,13 @@
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="19">
         <v>763</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>1235</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="22">
         <v>109000</v>
       </c>
     </row>
@@ -3327,26 +3355,26 @@
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="19">
         <v>567</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="19">
         <v>433</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="22">
         <v>112970</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="29">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22">
         <f>SUBTOTAL(1,H9:H10)</f>
         <v>110985</v>
       </c>
@@ -3357,13 +3385,13 @@
         <f>SUBTOTAL(3,C9:C10)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
@@ -3378,94 +3406,94 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="19">
         <v>2450</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="19">
         <v>550</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="22">
         <v>84320</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="20">
         <v>3250</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="20">
         <v>750</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="23">
         <v>107800</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
         <f>SUBTOTAL(1,H13:H14)</f>
         <v>96060</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
         <f>SUBTOTAL(3,C13:C14)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="39" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38">
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31">
         <f>SUBTOTAL(1,H3:H14)</f>
         <v>157636.25</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29">
         <f>SUBTOTAL(3,C3:C14)</f>
         <v>8</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
   </sheetData>
   <sortState ref="B3:H10">
